--- a/novelSpider/高人竟在我身边小说章节.xlsx
+++ b/novelSpider/高人竟在我身边小说章节.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="943">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="949">
   <si>
     <t>章节链接</t>
   </si>
@@ -2843,6 +2843,24 @@
   </si>
   <si>
     <t>第465章 醒来</t>
+  </si>
+  <si>
+    <t>http://www.xbiquge.la/66/66995/30893144.html</t>
+  </si>
+  <si>
+    <t>第466章 新时代</t>
+  </si>
+  <si>
+    <t>http://www.xbiquge.la/66/66995/30893145.html</t>
+  </si>
+  <si>
+    <t>第467章 地球OL</t>
+  </si>
+  <si>
+    <t>http://www.xbiquge.la/66/66995/30893154.html</t>
+  </si>
+  <si>
+    <t>完本感言</t>
   </si>
 </sst>
 </file>
@@ -3187,7 +3205,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B472"/>
+  <dimension ref="A1:B475"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6970,6 +6988,30 @@
       </c>
       <c r="B472" t="s">
         <v>942</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2">
+      <c r="A473" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="B473" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2">
+      <c r="A474" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="B474" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2">
+      <c r="A475" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="B475" t="s">
+        <v>948</v>
       </c>
     </row>
   </sheetData>
@@ -7445,6 +7487,9 @@
     <hyperlink ref="A470" r:id="rId469"/>
     <hyperlink ref="A471" r:id="rId470"/>
     <hyperlink ref="A472" r:id="rId471"/>
+    <hyperlink ref="A473" r:id="rId472"/>
+    <hyperlink ref="A474" r:id="rId473"/>
+    <hyperlink ref="A475" r:id="rId474"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
